--- a/src/test/java/com/Appium/Book1.xlsx
+++ b/src/test/java/com/Appium/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkokz\OneDrive - Monsanto\Migrated from My PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{34767E78-D192-44DF-9E1E-2FF4AFD2705F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{896D8F16-753E-4D5D-8625-00D0E1056662}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{34767E78-D192-44DF-9E1E-2FF4AFD2705F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{8574CC12-6CA9-4B77-B382-3B54596CC32B}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="2625" windowWidth="15375" windowHeight="7890" xr2:uid="{F94B140B-6C65-4F3A-8C05-C45844293AB0}"/>
+    <workbookView xWindow="10830" yWindow="2040" windowWidth="15375" windowHeight="7890" xr2:uid="{F94B140B-6C65-4F3A-8C05-C45844293AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>ProfileName</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Hari</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SIGNUP PAGE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Login with OTP</t>
+  </si>
+  <si>
+    <t>Login Details</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Account Details</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Kids</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Icons/Category</t>
+  </si>
+  <si>
+    <t>Ordering an item</t>
+  </si>
+  <si>
+    <t>Bag Status</t>
+  </si>
+  <si>
+    <t>Item Status</t>
+  </si>
+  <si>
+    <t>Item details</t>
+  </si>
+  <si>
+    <t>Item details in bag</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>Mobile Number Entered</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Logging in with OTP</t>
+  </si>
+  <si>
+    <t>Login details verified</t>
+  </si>
+  <si>
+    <t>Signed in</t>
   </si>
   <si>
     <t>passed</t>
   </si>
   <si>
-    <t>failed</t>
+    <t>Account details Verified</t>
+  </si>
+  <si>
+    <t>Collections icon verified</t>
+  </si>
+  <si>
+    <t>Closet icon verified</t>
+  </si>
+  <si>
+    <t>Bag icon verified</t>
+  </si>
+  <si>
+    <t>Account icon verified</t>
+  </si>
+  <si>
+    <t>Notifications icon verified</t>
+  </si>
+  <si>
+    <t>Women Category verified</t>
+  </si>
+  <si>
+    <t>Kids Category verified</t>
+  </si>
+  <si>
+    <t>Sale Category verified</t>
+  </si>
+  <si>
+    <t>Men Category verified</t>
+  </si>
+  <si>
+    <t>bag is Empty</t>
+  </si>
+  <si>
+    <t>Item Found</t>
+  </si>
+  <si>
+    <t>Item Verificafied</t>
+  </si>
+  <si>
+    <t>Item Verified after adding to bag</t>
+  </si>
+  <si>
+    <t>Proceeded to shipping</t>
+  </si>
+  <si>
+    <t>Proceeded to payment</t>
   </si>
 </sst>
 </file>
@@ -418,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210762D3-D52D-41F2-80BD-503E7655D698}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +564,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -445,11 +574,263 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/Appium/Book1.xlsx
+++ b/src/test/java/com/Appium/Book1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="50">
   <si>
     <t>Description</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Proceeded to payment</t>
+  </si>
+  <si>
+    <t>Already Signed in</t>
   </si>
 </sst>
 </file>
